--- a/medicine/Sexualité et sexologie/Liste_de_films_abordant_le_thème_de_la_prostitution/Liste_de_films_abordant_le_thème_de_la_prostitution.xlsx
+++ b/medicine/Sexualité et sexologie/Liste_de_films_abordant_le_thème_de_la_prostitution/Liste_de_films_abordant_le_thème_de_la_prostitution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive de films sur le thème de la prostitution et du travail du sexe, quel que soit l'angle sous lequel il est traité : 
 de la dénonciation de l'esclavage, de la prostitution forcée, de la traite des blanches à la défense de droits de travailleuses du sexe, à sa vulgarisation ;
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +553,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Accattone de Pier Paolo Pasolini
 Agadir Bombay de Myriam Bakir. Une Marocaine de 14 ans rêve d'aller à Agadir, où elle découvre finalement l'univers de la prostitution.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bad Guy (Nabbeun namja), de Kim Ki-duk.
 La Balance, de Bob Swaim.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Casque d'Or de Jacques Becker.
 Ce corps tant désiré de Luis Saslavsky
@@ -644,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +682,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dancing at the Blue Iguana de Michael Radford.
 Dédée d'Anvers d'Yves Allégret.
@@ -672,7 +694,7 @@
 La Dérobade avec Miou-Miou.
 Deux ou trois choses que je sais d'elle de Jean-Luc Godard.
 Die Rache einer Frau de Robert Wiene
-La Divine  un chef-d'œuvre du cinéma muet chinois[1].</t>
+La Divine  un chef-d'œuvre du cinéma muet chinois.</t>
         </is>
       </c>
     </row>
@@ -682,7 +704,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -700,7 +722,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Elles de Małgorzata Szumowska
 En chair et en os de Pedro Almodóvar.
@@ -719,7 +743,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -737,7 +761,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La Femme au portrait de Lang, avec Joan Benett.
 La Femme du port, le mélodrame classique d'Arcady Boytler, et la version d'Arturo Ripstein (entre autres).
@@ -764,7 +790,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -782,7 +808,9 @@
           <t>G, H, I</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Garçons d'Athènes, de Constantinos Giannaris.
 Les Garçons du trottoir, de Ruthie Shatz et Adi Barash.
@@ -811,7 +839,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -829,7 +857,9 @@
           <t>J, K</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Jamais le dimanche, de Jules Dassin.
 Jeanne Dielman, 23, quai du commerce, 1080 Bruxelles, de Chantal Akerman.
@@ -851,7 +881,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -869,7 +899,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>L.A. Confidential, de Curtis Hanson.
 Leaving Las Vegas, de Mike Figgis.
@@ -889,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -907,7 +939,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Madame Claude de Sylvie Verheyde.
 Madame Claude de Just Jaeckin.
@@ -937,7 +971,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -955,7 +989,9 @@
           <t>N, O</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Nana, de Jean Renoir.
 Never on sunday, de Jules Dassin.
@@ -971,7 +1007,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -989,11 +1025,13 @@
           <t>P, Q</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Paprika, de Tinto Brass, en Italie il y a environ 50 ans (IMDb).
 Paris, Texas, de Wim Wenders.
-La Petite de Louis Malle [1].
+La Petite de Louis Malle .
 Le Plaisir, de Max Ophüls.
 Le Plus Vieux Métier du monde de Claude Autant-Lara, Mauro Bolognini, Jean-Luc Godard, Philippe de Broca...
 La Porte du paradis (Heaven's Gate), de Michael Cimino.
@@ -1017,7 +1055,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1035,7 +1073,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Raphaël ou le Débauché de Michel Deville.
 Les Ripoux de Claude Zidi.
@@ -1053,7 +1093,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1071,7 +1111,9 @@
           <t>S, T</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Sakuran, de Mika Ninagawa.
 Salaam Bombay !, de Mira Nair.
@@ -1100,7 +1142,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1118,7 +1160,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Une prostituée au service du public et en règle avec la loi de Italo Zingarelli</t>
         </is>
@@ -1130,7 +1174,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1148,14 +1192,16 @@
           <t>V, W</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>La Valse dans l'ombre de Mervyn LeRoy. Pendant la Première Guerre mondiale, une jeune danseuse tombée dans la misère et croyant son fiancé mort au front se prostitue pour survivre.
 Vendues, de Jean-Claude Jean.
 Vers le sud, de Laurent Cantet. Film sur le tourisme sexuel dans les pays pauvres.
 La Viaccia, de Mauro Bolognini avec Claudia Cardinale et Jean-Paul Belmondo.
 La Vie d'O'Haru femme galante, de Kenji Mizoguchi.
-La Vie nouvelle, sur l'Europe de l'Est aujourd'hui [2].
+La Vie nouvelle, sur l'Europe de l'Est aujourd'hui .
 La Vie promise, d'Olivier Dahan.
 Violette Nozière de Claude Chabrol.
 Vivre sa vie de Jean-Luc Godard.
@@ -1171,7 +1217,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1189,7 +1235,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Les Yeux secs, de Narjiss Nejjar.</t>
         </is>
@@ -1201,7 +1249,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_films_abordant_le_th%C3%A8me_de_la_prostitution</t>
+          <t>Liste_de_films_abordant_le_thème_de_la_prostitution</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1219,7 +1267,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Cinéma: la Chine ressuscite ses icônes dans sa bataille contre Hollywood Le Point.fr , 13 août 2014 « Tourné en noir et blanc en 1934, "La Divine" témoigne de la vitalité et du savoir-faire des studios de Shanghai à leur âge d'or, quand la ville abritait l'une des plus vastes industries du film dans le monde. »
